--- a/tests/testthat/fixtures/ex2/tables/distractors_items.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/distractors_items.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">mag120001</t>
   </si>
@@ -41,19 +38,19 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mag120002</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mag120002</t>
   </si>
   <si>
     <t xml:space="preserve">*4</t>
@@ -437,64 +434,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>104</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.164</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1184</v>
       </c>
       <c r="C3" t="n">
-        <v>1172</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.295</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.171</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.145</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -513,72 +495,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>459</v>
       </c>
       <c r="C2" t="n">
-        <v>466</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.413</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>263</v>
       </c>
       <c r="C3" t="n">
-        <v>261</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.103</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>253</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.197</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>271</v>
       </c>
       <c r="C5" t="n">
-        <v>275</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.192</v>
+        <v>-0.172</v>
       </c>
     </row>
   </sheetData>
@@ -597,72 +564,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>254</v>
       </c>
       <c r="C2" t="n">
-        <v>251</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.154</v>
+        <v>-0.141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>276</v>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.123</v>
+        <v>-0.118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>401</v>
       </c>
       <c r="C4" t="n">
-        <v>385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>247</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.13</v>
+        <v>-0.142</v>
       </c>
     </row>
   </sheetData>
@@ -681,72 +633,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>257</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.101</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>226</v>
       </c>
       <c r="C3" t="n">
-        <v>226</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.055</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>243</v>
       </c>
       <c r="C4" t="n">
-        <v>225</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.13</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>211</v>
       </c>
       <c r="C5" t="n">
-        <v>229</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.289</v>
+        <v>0.271</v>
       </c>
     </row>
   </sheetData>
@@ -765,72 +702,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>129</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.052</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>123</v>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.149</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99</v>
       </c>
       <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.318</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>109</v>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.09</v>
+        <v>-0.081</v>
       </c>
     </row>
   </sheetData>
@@ -849,72 +771,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.148</v>
+        <v>-0.161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.171</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1132</v>
       </c>
       <c r="C5" t="n">
-        <v>1121</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -933,72 +840,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>125</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.183</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>152</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.237</v>
+        <v>-0.235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1009</v>
       </c>
       <c r="C4" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>142</v>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.144</v>
+        <v>-0.163</v>
       </c>
     </row>
   </sheetData>
@@ -1017,72 +909,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.197</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>155</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.195</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>152</v>
       </c>
       <c r="C4" t="n">
-        <v>149</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.141</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>962</v>
       </c>
       <c r="C5" t="n">
-        <v>947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.353</v>
+        <v>0.329</v>
       </c>
     </row>
   </sheetData>
@@ -1101,72 +978,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>909</v>
       </c>
       <c r="C2" t="n">
-        <v>904</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.421</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>166</v>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.185</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>174</v>
       </c>
       <c r="C4" t="n">
-        <v>170</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.24</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>176</v>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.198</v>
+        <v>-0.182</v>
       </c>
     </row>
   </sheetData>
@@ -1185,72 +1047,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>214</v>
       </c>
       <c r="C2" t="n">
-        <v>211</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.162</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>234</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.196</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>744</v>
       </c>
       <c r="C4" t="n">
-        <v>728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.411</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>205</v>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.205</v>
+        <v>-0.189</v>
       </c>
     </row>
   </sheetData>
@@ -1269,72 +1116,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>229</v>
       </c>
       <c r="C2" t="n">
-        <v>220</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.159</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>211</v>
       </c>
       <c r="C3" t="n">
-        <v>218</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.148</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>220</v>
       </c>
       <c r="C4" t="n">
-        <v>216</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.241</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>728</v>
       </c>
       <c r="C5" t="n">
-        <v>724</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.391</v>
       </c>
     </row>
   </sheetData>
@@ -1353,72 +1185,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>232</v>
       </c>
       <c r="C2" t="n">
-        <v>227</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.161</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>246</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.193</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>617</v>
       </c>
       <c r="C4" t="n">
-        <v>619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.425</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>261</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.196</v>
+        <v>-0.184</v>
       </c>
     </row>
   </sheetData>
@@ -1437,72 +1254,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="n">
+        <v>516</v>
       </c>
       <c r="C2" t="n">
-        <v>527</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.389</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>278</v>
       </c>
       <c r="C3" t="n">
-        <v>273</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.137</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>253</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.167</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>261</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.175</v>
+        <v>-0.179</v>
       </c>
     </row>
   </sheetData>
